--- a/Par Levels Store/Lititz_par_level.xlsx
+++ b/Par Levels Store/Lititz_par_level.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Par_Level_updates\Par Levels Store\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76853C58-69D3-4D8B-A6E1-AAECB99DB566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF13E38-9820-4E8C-88D6-479DF97F787C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B525CD2-655D-4F14-A2AC-27DBEC5DD791}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4B525CD2-655D-4F14-A2AC-27DBEC5DD791}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="180">
   <si>
     <t>Category</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Coolatta Vanilla Bean 4/64 ounce bottles</t>
   </si>
   <si>
-    <t>Cream cheese 8 ounce RE Plain 12 12/8 OZ</t>
-  </si>
-  <si>
     <t>Cream Cheese Plain RE 1.5/48</t>
   </si>
   <si>
@@ -294,9 +291,6 @@
     <t>GATORADE 20OZ 1/24CS LEMON LIME</t>
   </si>
   <si>
-    <t>Gatorade 20oz 1/24cs Lemon Lime</t>
-  </si>
-  <si>
     <t>Hashbrown Reduced Sodium 6/3 lb</t>
   </si>
   <si>
@@ -363,9 +357,6 @@
     <t>COFFEE GROUND POC DECAF 24/16 OUNCE</t>
   </si>
   <si>
-    <t>COFFEE GROUND POC HAZELNUT 24/16 OUNCE</t>
-  </si>
-  <si>
     <t>COFFEE GROUND POC REGULAR 24/16 OUNCE</t>
   </si>
   <si>
@@ -507,10 +498,74 @@
     <t xml:space="preserve">If par level is blank use your best judgement for order or reach out to Bob/Kim. </t>
   </si>
   <si>
-    <t>OCEAN SPRAY CRANBERRY COCKTAIL 12/15.2OZ</t>
-  </si>
-  <si>
-    <t>inf</t>
+    <t xml:space="preserve">
+OCEAN SPRAY CRANBERRY COCKTAIL 12/15.2OZ</t>
+  </si>
+  <si>
+    <t>Beach Holder Keychain Merchandiser 12 ct</t>
+  </si>
+  <si>
+    <t>Unassigned</t>
+  </si>
+  <si>
+    <t>Munchkin Box</t>
+  </si>
+  <si>
+    <t>Do not count (Equipment/Cleaning)</t>
+  </si>
+  <si>
+    <t>Schaerer Cleaning Tablets</t>
+  </si>
+  <si>
+    <t>Beverage Labels 30 Rolls 30/1 CARTON CS</t>
+  </si>
+  <si>
+    <t>On The Go Pink Thermal Tape 1 CV/* CS</t>
+  </si>
+  <si>
+    <t>Roll Towel White 6/800 feet</t>
+  </si>
+  <si>
+    <t>Printer DayMark</t>
+  </si>
+  <si>
+    <t>Hot Cup 6 oz Paper 1000 per case 1000/6 OZ</t>
+  </si>
+  <si>
+    <t>Thermal Register Paper 3 1/8 50 pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toilet Tissue Jumbo 12 per case 1/12 CT	</t>
+  </si>
+  <si>
+    <t>Vinyl Gloves Large 1000/LARGE</t>
+  </si>
+  <si>
+    <t>Dunkin Visor 2021 6 Pack</t>
+  </si>
+  <si>
+    <t>College Tumbler Penn State 6/24 ounce</t>
+  </si>
+  <si>
+    <t>Dog Toys Barkbox 2025 8 count 1/8 COUNT</t>
+  </si>
+  <si>
+    <t>DD Beanie 6 pack 1/6 CT</t>
+  </si>
+  <si>
+    <t>Maple Sugar Bacon Rub 10/3 ounce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PG Dish Detergent 4/1 Gal Dawn 4/*	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinn Sugar Shaker 6 pack 3.62 ounce 1/*	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Herbal Chamomile Pyramid 6/15 count 15/90 CT	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tea Herbal Hibiscus Kiss Pyramid 6/15 ct 15/90 CT	</t>
   </si>
 </sst>
 </file>
@@ -575,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -585,7 +640,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEE55B1-FF2A-4E90-A32A-AA62D998A64B}">
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:F207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,7 +970,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -935,40 +989,40 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="3">
         <v>914841</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="3">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3">
-        <v>914240</v>
+        <v>914215</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D4" s="3">
         <v>0.17</v>
@@ -978,77 +1032,77 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="3">
         <v>915030</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="3">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="3">
-        <v>914215</v>
+        <v>914211</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D6" s="3">
-        <v>0.17</v>
+        <v>0.46</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="3">
-        <v>914241</v>
+        <v>914212</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="D7" s="3">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3">
-        <v>914212</v>
+        <v>914748</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>160</v>
+        <v>91</v>
       </c>
       <c r="D8" s="3">
-        <v>0.12</v>
+        <v>0.92</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="3">
-        <v>914238</v>
+        <v>914240</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D9" s="3">
         <v>0.21</v>
@@ -1058,13 +1112,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="3">
-        <v>914243</v>
+        <v>914241</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D10" s="3">
         <v>0.17</v>
@@ -1074,64 +1128,64 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="3">
-        <v>214800</v>
+        <v>914238</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="D11" s="3">
-        <v>1.04</v>
+        <v>0.21</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="3">
-        <v>914244</v>
+        <v>914243</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D12" s="3">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="3">
-        <v>914211</v>
+        <v>914244</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D13" s="3">
-        <v>0.42</v>
+        <v>0.08</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="3">
-        <v>914748</v>
+        <v>214800</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="D14" s="3">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1141,13 +1195,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="3">
-        <v>233271</v>
+        <v>233268</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>161</v>
+        <v>77</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1157,13 +1211,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="3">
-        <v>233268</v>
+        <v>233271</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>161</v>
+      <c r="D16" s="3">
+        <v>0</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1173,13 +1227,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="3">
-        <v>913040</v>
+        <v>911586</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D17" s="3">
-        <v>1.1599999999999999</v>
+        <v>0.23</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1189,13 +1243,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="3">
-        <v>912727</v>
+        <v>912373</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="D18" s="3">
-        <v>0.06</v>
+        <v>1.2</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1205,13 +1259,13 @@
         <v>5</v>
       </c>
       <c r="B19" s="3">
-        <v>914369</v>
+        <v>912371</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1221,13 +1275,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="3">
-        <v>914687</v>
+        <v>911682</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3">
-        <v>3.42</v>
+        <v>0.19</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1237,13 +1291,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="3">
-        <v>913645</v>
+        <v>911585</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3">
-        <v>1.27</v>
+        <v>3.79</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1253,13 +1307,13 @@
         <v>5</v>
       </c>
       <c r="B22" s="3">
-        <v>910958</v>
+        <v>913040</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D22" s="3">
-        <v>5.79</v>
+        <v>1.21</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1269,13 +1323,13 @@
         <v>5</v>
       </c>
       <c r="B23" s="3">
-        <v>914370</v>
+        <v>912727</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D23" s="3">
-        <v>2.25</v>
+        <v>0.06</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1285,13 +1339,13 @@
         <v>5</v>
       </c>
       <c r="B24" s="3">
-        <v>912373</v>
+        <v>914369</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="D24" s="3">
-        <v>1.35</v>
+        <v>1.78</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1301,13 +1355,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="3">
-        <v>912371</v>
+        <v>914687</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D25" s="3">
-        <v>1.1200000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1317,13 +1371,13 @@
         <v>5</v>
       </c>
       <c r="B26" s="3">
-        <v>913977</v>
+        <v>910958</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D26" s="3">
-        <v>0.96</v>
+        <v>5.61</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1333,13 +1387,13 @@
         <v>5</v>
       </c>
       <c r="B27" s="3">
-        <v>914761</v>
+        <v>913645</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D27" s="3">
-        <v>0.32</v>
+        <v>1.29</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1349,13 +1403,13 @@
         <v>5</v>
       </c>
       <c r="B28" s="3">
-        <v>911586</v>
+        <v>914370</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="D28" s="3">
-        <v>0.24</v>
+        <v>2.5</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1365,13 +1419,13 @@
         <v>5</v>
       </c>
       <c r="B29" s="3">
-        <v>911682</v>
+        <v>913977</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D29" s="3">
-        <v>0.17</v>
+        <v>0.78</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1381,13 +1435,13 @@
         <v>5</v>
       </c>
       <c r="B30" s="3">
-        <v>911585</v>
+        <v>912034</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="D30" s="3">
-        <v>3.38</v>
+        <v>6.17</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1397,13 +1451,13 @@
         <v>5</v>
       </c>
       <c r="B31" s="3">
-        <v>912034</v>
+        <v>914693</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D31" s="3">
-        <v>5.5</v>
+        <v>2.56</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1413,13 +1467,13 @@
         <v>5</v>
       </c>
       <c r="B32" s="3">
-        <v>914919</v>
+        <v>914863</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="D32" s="3">
-        <v>0.75</v>
+        <v>0.94</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1429,13 +1483,13 @@
         <v>5</v>
       </c>
       <c r="B33" s="3">
-        <v>914995</v>
+        <v>912618</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>161</v>
+        <v>104</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.22</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1445,13 +1499,13 @@
         <v>5</v>
       </c>
       <c r="B34" s="3">
-        <v>912618</v>
+        <v>912615</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="3">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1461,13 +1515,13 @@
         <v>5</v>
       </c>
       <c r="B35" s="3">
-        <v>912615</v>
+        <v>912616</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="3">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1477,13 +1531,13 @@
         <v>5</v>
       </c>
       <c r="B36" s="3">
-        <v>912616</v>
+        <v>914995</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D36" s="3">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1493,13 +1547,13 @@
         <v>5</v>
       </c>
       <c r="B37" s="3">
-        <v>914693</v>
+        <v>914919</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D37" s="3">
-        <v>2.89</v>
+        <v>0.4</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1509,13 +1563,13 @@
         <v>5</v>
       </c>
       <c r="B38" s="3">
-        <v>911323</v>
+        <v>914761</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="D38" s="3">
-        <v>1.42</v>
+        <v>0.48</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1525,13 +1579,13 @@
         <v>5</v>
       </c>
       <c r="B39" s="3">
-        <v>914863</v>
+        <v>911323</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="D39" s="3">
-        <v>1.03</v>
+        <v>0.96</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1541,13 +1595,13 @@
         <v>11</v>
       </c>
       <c r="B40" s="3">
-        <v>201200</v>
+        <v>914953</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="D40" s="3">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -1557,13 +1611,13 @@
         <v>11</v>
       </c>
       <c r="B41" s="3">
-        <v>203300</v>
+        <v>913678</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="D41" s="3">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -1573,13 +1627,13 @@
         <v>11</v>
       </c>
       <c r="B42" s="3">
-        <v>200200</v>
+        <v>206250</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="D42" s="3">
-        <v>0.21</v>
+        <v>0.08</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -1589,13 +1643,13 @@
         <v>11</v>
       </c>
       <c r="B43" s="3">
-        <v>200110</v>
+        <v>201200</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D43" s="3">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -1605,13 +1659,13 @@
         <v>11</v>
       </c>
       <c r="B44" s="3">
-        <v>913678</v>
+        <v>200200</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="D44" s="3">
-        <v>0.04</v>
+        <v>0.17</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -1621,13 +1675,13 @@
         <v>11</v>
       </c>
       <c r="B45" s="3">
-        <v>206250</v>
+        <v>200110</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="D45" s="3">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -1637,13 +1691,13 @@
         <v>3</v>
       </c>
       <c r="B46" s="3">
-        <v>912508</v>
+        <v>912435</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D46" s="3">
-        <v>0.01</v>
+        <v>0.25</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -1659,7 +1713,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="3">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -1669,13 +1723,13 @@
         <v>3</v>
       </c>
       <c r="B48" s="3">
-        <v>914938</v>
+        <v>913560</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D48" s="3">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -1685,13 +1739,13 @@
         <v>3</v>
       </c>
       <c r="B49" s="3">
-        <v>912513</v>
+        <v>913960</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D49" s="3">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -1701,13 +1755,13 @@
         <v>3</v>
       </c>
       <c r="B50" s="3">
-        <v>914343</v>
+        <v>914938</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D50" s="3">
-        <v>0.25</v>
+        <v>0.08</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -1717,13 +1771,13 @@
         <v>3</v>
       </c>
       <c r="B51" s="3">
-        <v>300131</v>
+        <v>912939</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="D51" s="3">
-        <v>0.16</v>
+        <v>2.33</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1733,13 +1787,13 @@
         <v>3</v>
       </c>
       <c r="B52" s="3">
-        <v>300130</v>
+        <v>914343</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="D52" s="3">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -1749,13 +1803,13 @@
         <v>3</v>
       </c>
       <c r="B53" s="3">
-        <v>911689</v>
+        <v>912508</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="D53" s="3">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1765,13 +1819,13 @@
         <v>3</v>
       </c>
       <c r="B54" s="3">
-        <v>911490</v>
+        <v>914223</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="D54" s="3">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1781,13 +1835,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="3">
-        <v>914986</v>
+        <v>914722</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>161</v>
+        <v>23</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.53</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1797,13 +1851,13 @@
         <v>3</v>
       </c>
       <c r="B56" s="3">
-        <v>200000</v>
+        <v>912513</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D56" s="3">
-        <v>1.17</v>
+        <v>0.84</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1813,13 +1867,13 @@
         <v>3</v>
       </c>
       <c r="B57" s="3">
-        <v>201000</v>
+        <v>912511</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D57" s="3">
-        <v>0.17</v>
+        <v>0.47</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1829,13 +1883,13 @@
         <v>3</v>
       </c>
       <c r="B58" s="3">
-        <v>204177</v>
+        <v>914224</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D58" s="3">
-        <v>2.92</v>
+        <v>0.25</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1845,13 +1899,13 @@
         <v>3</v>
       </c>
       <c r="B59" s="3">
-        <v>913425</v>
+        <v>914225</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="D59" s="3">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -1861,13 +1915,13 @@
         <v>3</v>
       </c>
       <c r="B60" s="3">
-        <v>911100</v>
+        <v>914754</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="D60" s="3">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -1877,13 +1931,13 @@
         <v>3</v>
       </c>
       <c r="B61" s="3">
-        <v>911099</v>
+        <v>914986</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="D61" s="3">
-        <v>2.0099999999999998</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -1893,13 +1947,13 @@
         <v>3</v>
       </c>
       <c r="B62" s="3">
-        <v>911757</v>
+        <v>200000</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D62" s="3">
-        <v>0.42</v>
+        <v>1.33</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -1909,13 +1963,13 @@
         <v>3</v>
       </c>
       <c r="B63" s="3">
-        <v>911758</v>
+        <v>204177</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D63" s="3">
-        <v>3.38</v>
+        <v>2.75</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -1925,13 +1979,13 @@
         <v>3</v>
       </c>
       <c r="B64" s="3">
-        <v>911759</v>
+        <v>201000</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D64" s="3">
-        <v>2.37</v>
+        <v>0.17</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -1941,13 +1995,13 @@
         <v>3</v>
       </c>
       <c r="B65" s="3">
-        <v>911101</v>
+        <v>206000</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="D65" s="3">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -1957,13 +2011,13 @@
         <v>3</v>
       </c>
       <c r="B66" s="3">
-        <v>913424</v>
+        <v>206200</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="D66" s="3">
-        <v>0.12</v>
+        <v>0.38</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -1973,13 +2027,13 @@
         <v>3</v>
       </c>
       <c r="B67" s="3">
-        <v>911372</v>
+        <v>914656</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="D67" s="3">
-        <v>0.08</v>
+        <v>4.45</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -1989,10 +2043,10 @@
         <v>3</v>
       </c>
       <c r="B68" s="3">
-        <v>911059</v>
+        <v>914825</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D68" s="3">
         <v>0.25</v>
@@ -2005,13 +2059,13 @@
         <v>3</v>
       </c>
       <c r="B69" s="3">
-        <v>912381</v>
+        <v>913537</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D69" s="3">
-        <v>0.25</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -2021,13 +2075,13 @@
         <v>3</v>
       </c>
       <c r="B70" s="3">
-        <v>260020</v>
+        <v>911059</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D70" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -2037,13 +2091,13 @@
         <v>3</v>
       </c>
       <c r="B71" s="3">
-        <v>912018</v>
+        <v>912381</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>146</v>
+        <v>46</v>
       </c>
       <c r="D71" s="3">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -2053,13 +2107,13 @@
         <v>3</v>
       </c>
       <c r="B72" s="3">
-        <v>912320</v>
+        <v>260020</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>161</v>
+        <v>47</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.5</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -2069,13 +2123,13 @@
         <v>3</v>
       </c>
       <c r="B73" s="3">
-        <v>914825</v>
+        <v>300131</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D73" s="3">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -2085,13 +2139,13 @@
         <v>3</v>
       </c>
       <c r="B74" s="3">
-        <v>914223</v>
+        <v>911757</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D74" s="3">
-        <v>0.8</v>
+        <v>0.42</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -2101,13 +2155,13 @@
         <v>3</v>
       </c>
       <c r="B75" s="3">
-        <v>914722</v>
+        <v>911758</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D75" s="3">
-        <v>0.53</v>
+        <v>3.31</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -2117,13 +2171,13 @@
         <v>3</v>
       </c>
       <c r="B76" s="3">
-        <v>913537</v>
+        <v>911759</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D76" s="3">
-        <v>0.14000000000000001</v>
+        <v>2.29</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -2136,10 +2190,10 @@
         <v>913584</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>161</v>
+        <v>59</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -2149,13 +2203,13 @@
         <v>3</v>
       </c>
       <c r="B78" s="3">
-        <v>206000</v>
+        <v>914182</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D78" s="3">
-        <v>3.38</v>
+        <v>0.71</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -2165,13 +2219,13 @@
         <v>3</v>
       </c>
       <c r="B79" s="3">
-        <v>206200</v>
+        <v>914181</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D79" s="3">
-        <v>0.38</v>
+        <v>0.9</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -2181,13 +2235,13 @@
         <v>3</v>
       </c>
       <c r="B80" s="3">
-        <v>250000</v>
+        <v>914180</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="D80" s="3">
-        <v>1</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -2197,13 +2251,13 @@
         <v>3</v>
       </c>
       <c r="B81" s="3">
-        <v>913590</v>
+        <v>914183</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D81" s="3">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -2213,13 +2267,13 @@
         <v>3</v>
       </c>
       <c r="B82" s="3">
-        <v>913589</v>
+        <v>912320</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D82" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -2229,10 +2283,10 @@
         <v>3</v>
       </c>
       <c r="B83" s="3">
-        <v>913342</v>
+        <v>913590</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D83" s="3">
         <v>1</v>
@@ -2245,10 +2299,10 @@
         <v>3</v>
       </c>
       <c r="B84" s="3">
-        <v>913588</v>
+        <v>913589</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D84" s="3">
         <v>1</v>
@@ -2261,10 +2315,10 @@
         <v>3</v>
       </c>
       <c r="B85" s="3">
-        <v>913587</v>
+        <v>913300</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D85" s="3">
         <v>1</v>
@@ -2277,7 +2331,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="3">
-        <v>913300</v>
+        <v>913342</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>83</v>
@@ -2293,13 +2347,13 @@
         <v>3</v>
       </c>
       <c r="B87" s="3">
-        <v>915030</v>
+        <v>913588</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D87" s="3">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -2309,13 +2363,13 @@
         <v>3</v>
       </c>
       <c r="B88" s="3">
-        <v>312799</v>
+        <v>913587</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="D88" s="3">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -2328,7 +2382,7 @@
         <v>914380</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D89" s="3">
         <v>0.62</v>
@@ -2341,13 +2395,13 @@
         <v>3</v>
       </c>
       <c r="B90" s="3">
-        <v>914180</v>
+        <v>300130</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="D90" s="3">
-        <v>0.55000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -2357,13 +2411,13 @@
         <v>3</v>
       </c>
       <c r="B91" s="3">
-        <v>914181</v>
+        <v>911099</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="D91" s="3">
-        <v>0.86</v>
+        <v>1.96</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
@@ -2373,13 +2427,13 @@
         <v>3</v>
       </c>
       <c r="B92" s="3">
-        <v>914182</v>
+        <v>911101</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="D92" s="3">
-        <v>0.7</v>
+        <v>0.96</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -2389,13 +2443,13 @@
         <v>3</v>
       </c>
       <c r="B93" s="3">
-        <v>914183</v>
+        <v>913425</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D93" s="3">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -2405,13 +2459,13 @@
         <v>3</v>
       </c>
       <c r="B94" s="3">
-        <v>300120</v>
+        <v>913424</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>161</v>
+        <v>96</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0.11</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -2421,13 +2475,13 @@
         <v>3</v>
       </c>
       <c r="B95" s="3">
-        <v>914656</v>
+        <v>911100</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="D95" s="3">
-        <v>4.6500000000000004</v>
+        <v>0.22</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -2437,13 +2491,13 @@
         <v>3</v>
       </c>
       <c r="B96" s="3">
-        <v>914848</v>
+        <v>911372</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -2453,13 +2507,13 @@
         <v>3</v>
       </c>
       <c r="B97" s="3">
-        <v>913560</v>
+        <v>300120</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="D97" s="3">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -2472,10 +2526,10 @@
         <v>914665</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D98" s="3">
-        <v>1.04</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
@@ -2485,13 +2539,13 @@
         <v>3</v>
       </c>
       <c r="B99" s="3">
-        <v>267082</v>
+        <v>914848</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D99" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -2501,13 +2555,13 @@
         <v>3</v>
       </c>
       <c r="B100" s="3">
-        <v>913960</v>
+        <v>913991</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="D100" s="3">
-        <v>1.42</v>
+        <v>0.54</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -2517,13 +2571,13 @@
         <v>3</v>
       </c>
       <c r="B101" s="3">
-        <v>912435</v>
+        <v>312799</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D101" s="3">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
@@ -2533,13 +2587,13 @@
         <v>3</v>
       </c>
       <c r="B102" s="3">
-        <v>912511</v>
+        <v>914851</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="D102" s="3">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
@@ -2549,13 +2603,13 @@
         <v>3</v>
       </c>
       <c r="B103" s="3">
-        <v>914224</v>
+        <v>267082</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="D103" s="3">
-        <v>0.23</v>
+        <v>1</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
@@ -2565,13 +2619,13 @@
         <v>3</v>
       </c>
       <c r="B104" s="3">
-        <v>914225</v>
+        <v>252000</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="D104" s="3">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
@@ -2581,13 +2635,13 @@
         <v>3</v>
       </c>
       <c r="B105" s="3">
-        <v>913991</v>
+        <v>913529</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D105" s="3">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -2597,13 +2651,13 @@
         <v>3</v>
       </c>
       <c r="B106" s="3">
-        <v>914754</v>
+        <v>250500</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="D106" s="3">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
@@ -2613,13 +2667,13 @@
         <v>3</v>
       </c>
       <c r="B107" s="3">
-        <v>912939</v>
+        <v>911689</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="D107" s="3">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -2629,10 +2683,10 @@
         <v>3</v>
       </c>
       <c r="B108" s="3">
-        <v>250500</v>
+        <v>913529</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D108" s="3">
         <v>0</v>
@@ -2645,13 +2699,13 @@
         <v>3</v>
       </c>
       <c r="B109" s="3">
-        <v>252000</v>
+        <v>250000</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D109" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
@@ -2661,13 +2715,13 @@
         <v>3</v>
       </c>
       <c r="B110" s="3">
-        <v>913529</v>
+        <v>910912</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D110" s="3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
@@ -2677,13 +2731,13 @@
         <v>3</v>
       </c>
       <c r="B111" s="3">
-        <v>913529</v>
+        <v>266016</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D111" s="3">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
@@ -2693,13 +2747,13 @@
         <v>3</v>
       </c>
       <c r="B112" s="3">
-        <v>910912</v>
+        <v>914985</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D112" s="3">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
@@ -2709,13 +2763,13 @@
         <v>3</v>
       </c>
       <c r="B113" s="3">
-        <v>266016</v>
+        <v>910971</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D113" s="3">
-        <v>3.83</v>
+        <v>3</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -2725,13 +2779,13 @@
         <v>3</v>
       </c>
       <c r="B114" s="3">
-        <v>914985</v>
+        <v>914807</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D114" s="3">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
@@ -2741,13 +2795,13 @@
         <v>3</v>
       </c>
       <c r="B115" s="3">
-        <v>910971</v>
+        <v>266105</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D115" s="3">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
@@ -2757,13 +2811,13 @@
         <v>3</v>
       </c>
       <c r="B116" s="3">
-        <v>914807</v>
+        <v>253060</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D116" s="3">
-        <v>0.5</v>
+        <v>3.75</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
@@ -2773,13 +2827,13 @@
         <v>3</v>
       </c>
       <c r="B117" s="3">
-        <v>266105</v>
+        <v>914402</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D117" s="3">
-        <v>1.67</v>
+        <v>0.5</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
@@ -2789,13 +2843,13 @@
         <v>3</v>
       </c>
       <c r="B118" s="3">
-        <v>253060</v>
+        <v>911706</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D118" s="3">
-        <v>3.25</v>
+        <v>0.75</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
@@ -2805,10 +2859,10 @@
         <v>3</v>
       </c>
       <c r="B119" s="3">
-        <v>914402</v>
+        <v>914404</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D119" s="3">
         <v>0.5</v>
@@ -2821,13 +2875,13 @@
         <v>3</v>
       </c>
       <c r="B120" s="3">
-        <v>911706</v>
+        <v>911076</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D120" s="3">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
@@ -2837,13 +2891,13 @@
         <v>3</v>
       </c>
       <c r="B121" s="3">
-        <v>914404</v>
+        <v>914845</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D121" s="3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
@@ -2853,13 +2907,13 @@
         <v>3</v>
       </c>
       <c r="B122" s="3">
-        <v>911076</v>
+        <v>910263</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D122" s="3">
-        <v>1.25</v>
+        <v>0.01</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
@@ -2869,13 +2923,13 @@
         <v>3</v>
       </c>
       <c r="B123" s="3">
-        <v>914845</v>
+        <v>911490</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D123" s="3">
-        <v>0.25</v>
+        <v>0.83</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -2885,13 +2939,13 @@
         <v>3</v>
       </c>
       <c r="B124" s="3">
-        <v>910263</v>
+        <v>910270</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D124" s="3">
-        <v>0.01</v>
+        <v>0.33</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
@@ -2901,13 +2955,13 @@
         <v>3</v>
       </c>
       <c r="B125" s="3">
-        <v>910265</v>
+        <v>912018</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D125" s="3">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
@@ -2917,13 +2971,13 @@
         <v>3</v>
       </c>
       <c r="B126" s="3">
-        <v>910270</v>
+        <v>910265</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D126" s="3">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
@@ -2936,10 +2990,10 @@
         <v>912745</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D127" s="3">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
@@ -2952,26 +3006,26 @@
         <v>912745</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D128" s="3">
-        <v>0.38</v>
+        <v>0.22</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B129" s="3">
-        <v>914851</v>
+        <v>914669</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="D129" s="3">
-        <v>0.48</v>
+        <v>2.58</v>
       </c>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
@@ -2981,13 +3035,13 @@
         <v>18</v>
       </c>
       <c r="B130" s="3">
-        <v>266200</v>
+        <v>911028</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D130" s="3">
-        <v>2.42</v>
+        <v>1.96</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
@@ -2997,13 +3051,13 @@
         <v>18</v>
       </c>
       <c r="B131" s="3">
-        <v>912907</v>
+        <v>912639</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="D131" s="3">
-        <v>3.32</v>
+        <v>1.34</v>
       </c>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
@@ -3013,13 +3067,13 @@
         <v>18</v>
       </c>
       <c r="B132" s="3">
-        <v>911028</v>
+        <v>913019</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D132" s="3">
-        <v>2.15</v>
+        <v>0.2</v>
       </c>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
@@ -3029,13 +3083,13 @@
         <v>18</v>
       </c>
       <c r="B133" s="3">
-        <v>912639</v>
+        <v>912557</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D133" s="3">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
@@ -3051,7 +3105,7 @@
         <v>43</v>
       </c>
       <c r="D134" s="3">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
@@ -3061,13 +3115,13 @@
         <v>18</v>
       </c>
       <c r="B135" s="3">
-        <v>150811</v>
+        <v>150145</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="D135" s="3">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
@@ -3077,13 +3131,13 @@
         <v>18</v>
       </c>
       <c r="B136" s="3">
-        <v>914371</v>
+        <v>911403</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D136" s="3">
-        <v>4.5</v>
+        <v>0.08</v>
       </c>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
@@ -3093,13 +3147,13 @@
         <v>18</v>
       </c>
       <c r="B137" s="3">
-        <v>914864</v>
+        <v>911405</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D137" s="3">
-        <v>0.33</v>
+        <v>0.21</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
@@ -3109,13 +3163,13 @@
         <v>18</v>
       </c>
       <c r="B138" s="3">
-        <v>911408</v>
+        <v>911406</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D138" s="3">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
@@ -3125,13 +3179,13 @@
         <v>18</v>
       </c>
       <c r="B139" s="3">
-        <v>911403</v>
+        <v>914864</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D139" s="3">
-        <v>0.08</v>
+        <v>0.33</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
@@ -3141,13 +3195,13 @@
         <v>18</v>
       </c>
       <c r="B140" s="3">
-        <v>911405</v>
+        <v>266200</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D140" s="3">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
@@ -3157,13 +3211,13 @@
         <v>18</v>
       </c>
       <c r="B141" s="3">
-        <v>911406</v>
+        <v>914371</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="D141" s="3">
-        <v>0.23</v>
+        <v>4.33</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
@@ -3173,13 +3227,13 @@
         <v>18</v>
       </c>
       <c r="B142" s="3">
-        <v>912847</v>
+        <v>150110</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D142" s="3">
-        <v>7</v>
+        <v>5.89</v>
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
@@ -3189,13 +3243,13 @@
         <v>18</v>
       </c>
       <c r="B143" s="3">
-        <v>150110</v>
+        <v>912847</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D143" s="3">
-        <v>6.22</v>
+        <v>6.83</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
@@ -3205,329 +3259,349 @@
         <v>18</v>
       </c>
       <c r="B144" s="3">
-        <v>150145</v>
+        <v>150420</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D144" s="3">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B145" s="3">
-        <v>913161</v>
+        <v>150811</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="D145" s="3">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B146" s="3">
-        <v>913019</v>
+        <v>150240</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D146" s="3">
-        <v>0.22</v>
+        <v>14.75</v>
       </c>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B147" s="3">
-        <v>150420</v>
+        <v>912907</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D147" s="3">
-        <v>0.75</v>
+        <v>3.45</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B148" s="3">
-        <v>912557</v>
+        <v>913161</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="D148" s="3">
-        <v>1.64</v>
+        <v>3</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="B149" s="3">
-        <v>914669</v>
+        <v>912283</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D149" s="3">
-        <v>2.58</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="B150" s="3">
-        <v>150240</v>
+        <v>911984</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D150" s="3">
-        <v>14</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
-      <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
-      <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="5"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
-      <c r="G161" s="5"/>
-      <c r="H161" s="5"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="5"/>
-      <c r="B162" s="5"/>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="5"/>
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B151" s="3">
+        <v>911206</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B152" s="3">
+        <v>915064</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B153" s="3">
+        <v>913941</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B154" s="3">
+        <v>913585</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155" s="3">
+        <v>713102</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156" s="3">
+        <v>915061</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157" s="3">
+        <v>914673</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" s="3">
+        <v>913634</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" s="3">
+        <v>912511</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D159" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3">
+        <v>914811</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3">
+        <v>913162</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3">
+        <v>914887</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3">
+        <v>911075</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3">
+        <v>352299</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3">
+        <v>912175</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3">
+        <v>910267</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3">
+        <v>910272</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D176" s="1"/>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.25">
